--- a/Documentation/Mestra.xlsx
+++ b/Documentation/Mestra.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickeijz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickeijz\Documents\Git\Mestra\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7860" windowHeight="4512" tabRatio="854" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7860" windowHeight="4512" tabRatio="854" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="858">
   <si>
     <t>Day</t>
   </si>
@@ -2280,9 +2280,6 @@
     <t>Further</t>
   </si>
   <si>
-    <t>1000----</t>
-  </si>
-  <si>
     <t>Single Channel</t>
   </si>
   <si>
@@ -2458,6 +2455,159 @@
   </si>
   <si>
     <t>Worked home 1,5 hr</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>----1001</t>
+  </si>
+  <si>
+    <t>MIDI command</t>
+  </si>
+  <si>
+    <t>MIDI channel</t>
+  </si>
+  <si>
+    <t>-100----</t>
+  </si>
+  <si>
+    <t>e------</t>
+  </si>
+  <si>
+    <t>1 = yes, 0 = no</t>
+  </si>
+  <si>
+    <t>-101----</t>
+  </si>
+  <si>
+    <t>t-------</t>
+  </si>
+  <si>
+    <t>Note On Type</t>
+  </si>
+  <si>
+    <t>0 = single note, 1 = range</t>
+  </si>
+  <si>
+    <t>-nnnnnnn</t>
+  </si>
+  <si>
+    <t>Note start</t>
+  </si>
+  <si>
+    <t>0~10: octave, 11~126: note, 127: All</t>
+  </si>
+  <si>
+    <t>MIDI Triggers</t>
+  </si>
+  <si>
+    <t>----1000</t>
+  </si>
+  <si>
+    <t>Note Off, like Note On</t>
+  </si>
+  <si>
+    <t>Note end</t>
+  </si>
+  <si>
+    <t>0~127</t>
+  </si>
+  <si>
+    <t>----1010</t>
+  </si>
+  <si>
+    <t>Polyphonic key pressure</t>
+  </si>
+  <si>
+    <t>if 1: Note end used</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
+  </si>
+  <si>
+    <t>Not impl.</t>
+  </si>
+  <si>
+    <t>----1011</t>
+  </si>
+  <si>
+    <t>Control Change</t>
+  </si>
+  <si>
+    <t>-ccccccc</t>
+  </si>
+  <si>
+    <t>Control Number</t>
+  </si>
+  <si>
+    <t>-mmmmmmm</t>
+  </si>
+  <si>
+    <t>a-------</t>
+  </si>
+  <si>
+    <t>All CCs</t>
+  </si>
+  <si>
+    <t>if 1: skip next</t>
+  </si>
+  <si>
+    <t>0: exact, 1: min/max</t>
+  </si>
+  <si>
+    <t>Min/Exact Value</t>
+  </si>
+  <si>
+    <t>Max Value</t>
+  </si>
+  <si>
+    <t>----1100</t>
+  </si>
+  <si>
+    <t>Program Change</t>
+  </si>
+  <si>
+    <t>-ppppppp</t>
+  </si>
+  <si>
+    <t>0: any change, 1: exact change</t>
+  </si>
+  <si>
+    <t>----1101</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>----1110</t>
+  </si>
+  <si>
+    <t>Trigger order</t>
+  </si>
+  <si>
+    <t>Lower than previous</t>
+  </si>
+  <si>
+    <t>Higher than previous</t>
+  </si>
+  <si>
+    <t>Lower than value</t>
+  </si>
+  <si>
+    <t>Higher than value</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>Not equal</t>
+  </si>
+  <si>
+    <t>Edge downwards (cur value &lt; value, prev value &gt; value</t>
+  </si>
+  <si>
+    <t>Edge upwards (cur value &gt; value, prev value &lt; value</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2618,6 +2768,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2934,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -4534,7 +4687,7 @@
         <v>2.1666666666667131</v>
       </c>
       <c r="H58" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4564,7 +4717,7 @@
         <v>3.2500000000000471</v>
       </c>
       <c r="H59" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -6155,7 +6308,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6743,11 +6896,11 @@
         <v>17.3</v>
       </c>
       <c r="M34" s="21">
-        <f>K34*L34</f>
+        <f t="shared" ref="M34:M41" si="1">K34*L34</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>I34*L34</f>
+        <f t="shared" ref="N34:N41" si="2">I34*L34</f>
         <v>0</v>
       </c>
     </row>
@@ -6759,11 +6912,11 @@
         <v>15.3</v>
       </c>
       <c r="M35" s="21">
-        <f>K35*L35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>I35*L35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6778,11 +6931,11 @@
         <v>4</v>
       </c>
       <c r="M36" s="21">
-        <f>K36*L36</f>
+        <f t="shared" si="1"/>
         <v>36.799999999999997</v>
       </c>
       <c r="N36">
-        <f>I36*L36</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -6794,11 +6947,11 @@
         <v>7.3</v>
       </c>
       <c r="M37" s="21">
-        <f>K37*L37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>I37*L37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6807,11 +6960,11 @@
         <v>3</v>
       </c>
       <c r="M38" s="21">
-        <f>K38*L38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>I38*L38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6826,11 +6979,11 @@
         <v>1</v>
       </c>
       <c r="M39" s="21">
-        <f>K39*L39</f>
+        <f t="shared" si="1"/>
         <v>4.33</v>
       </c>
       <c r="N39">
-        <f>I39*L39</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -6845,11 +6998,11 @@
         <v>3</v>
       </c>
       <c r="M40" s="21">
-        <f>K40*L40</f>
+        <f t="shared" si="1"/>
         <v>11.31</v>
       </c>
       <c r="N40">
-        <f>I40*L40</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -6864,11 +7017,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="21">
-        <f>K41*L41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>I41*L41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6927,11 +7080,11 @@
         <v>17.3</v>
       </c>
       <c r="M50" s="21">
-        <f>K50*L50</f>
+        <f t="shared" ref="M50:M57" si="3">K50*L50</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>I50*L50</f>
+        <f t="shared" ref="N50:N57" si="4">I50*L50</f>
         <v>0</v>
       </c>
     </row>
@@ -6943,11 +7096,11 @@
         <v>15.3</v>
       </c>
       <c r="M51" s="21">
-        <f>K51*L51</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>I51*L51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6962,11 +7115,11 @@
         <v>7</v>
       </c>
       <c r="M52" s="21">
-        <f>K52*L52</f>
+        <f t="shared" si="3"/>
         <v>64.399999999999991</v>
       </c>
       <c r="N52">
-        <f>I52*L52</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -6981,11 +7134,11 @@
         <v>0</v>
       </c>
       <c r="M53" s="21">
-        <f>K53*L53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f>I53*L53</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6994,11 +7147,11 @@
         <v>3</v>
       </c>
       <c r="M54" s="21">
-        <f>K54*L54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f>I54*L54</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7013,11 +7166,11 @@
         <v>4</v>
       </c>
       <c r="M55" s="21">
-        <f>K55*L55</f>
+        <f t="shared" si="3"/>
         <v>17.32</v>
       </c>
       <c r="N55">
-        <f>I55*L55</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7032,11 +7185,11 @@
         <v>6</v>
       </c>
       <c r="M56" s="21">
-        <f>K56*L56</f>
+        <f t="shared" si="3"/>
         <v>22.62</v>
       </c>
       <c r="N56">
-        <f>I56*L56</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7051,11 +7204,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="21">
-        <f>K57*L57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f>I57*L57</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7178,8 +7331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23919,8 +24072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView topLeftCell="N43" workbookViewId="0">
-      <selection activeCell="W65" sqref="W65"/>
+    <sheetView topLeftCell="U43" workbookViewId="0">
+      <selection activeCell="AO57" sqref="AO57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26558,8 +26711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CE97BA-B3F2-40F3-BD7E-DF57BE3A5054}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27694,8 +27847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29552,7 +29705,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29653,8 +29806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:K261"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31998,10 +32151,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AU272"/>
+  <dimension ref="A1:BD272"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AS21" sqref="AS21"/>
+    <sheetView tabSelected="1" topLeftCell="AT25" workbookViewId="0">
+      <selection activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32032,9 +32185,15 @@
     <col min="44" max="44" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>224</v>
       </c>
@@ -32061,8 +32220,12 @@
       <c r="AL1" s="8" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV1" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="AW1" s="40"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -32102,7 +32265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -32181,13 +32344,40 @@
         <v>477</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AT4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV4" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="AY4" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="BB4" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="BC4" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="BD4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>519</v>
       </c>
@@ -32249,21 +32439,30 @@
       <c r="AJ5" t="s">
         <v>591</v>
       </c>
-      <c r="AL5" s="36" t="s">
-        <v>748</v>
-      </c>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
+      <c r="AL5" s="37" t="s">
+        <v>812</v>
+      </c>
       <c r="AR5" t="s">
-        <v>752</v>
+        <v>253</v>
       </c>
       <c r="AS5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+      <c r="AV5" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BB5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -32320,20 +32519,33 @@
         <v>592</v>
       </c>
       <c r="AL6" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
+        <v>811</v>
+      </c>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
       <c r="AR6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AS6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+      <c r="AV6" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BB6" t="s">
+        <v>751</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -32390,22 +32602,34 @@
         <v>591</v>
       </c>
       <c r="AL7" s="37" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="AM7" s="36"/>
       <c r="AN7" s="36"/>
       <c r="AO7" s="36"/>
       <c r="AP7" s="36"/>
       <c r="AR7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="AS7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT7" s="36"/>
+        <v>748</v>
+      </c>
       <c r="AU7" s="36"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV7" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BB7" t="s">
+        <v>809</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>740</v>
       </c>
@@ -32476,23 +32700,44 @@
       <c r="AJ8" t="s">
         <v>593</v>
       </c>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="37" t="s">
-        <v>761</v>
-      </c>
+      <c r="AL8" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM8" s="36"/>
       <c r="AN8" s="36"/>
       <c r="AO8" s="36"/>
       <c r="AP8" s="36"/>
       <c r="AR8" t="s">
-        <v>468</v>
+        <v>758</v>
       </c>
       <c r="AS8" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="AT8" s="36"/>
       <c r="AU8" s="36"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW8" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BB8" t="s">
+        <v>816</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>817</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="B9" t="s">
+        <v>807</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" t="s">
         <v>181</v>
@@ -32555,22 +32800,32 @@
         <v>591</v>
       </c>
       <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="37" t="s">
-        <v>762</v>
-      </c>
+      <c r="AM9" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="AN9" s="36"/>
       <c r="AO9" s="36"/>
       <c r="AP9" s="36"/>
       <c r="AR9" t="s">
-        <v>759</v>
+        <v>468</v>
       </c>
       <c r="AS9" t="s">
         <v>147</v>
       </c>
       <c r="AT9" s="36"/>
       <c r="AU9" s="36"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>810</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D10" s="9"/>
       <c r="E10" s="16" t="s">
         <v>441</v>
@@ -32642,23 +32897,29 @@
       <c r="AJ10" t="s">
         <v>595</v>
       </c>
-      <c r="AL10" s="37" t="s">
-        <v>763</v>
-      </c>
+      <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
+      <c r="AN10" s="37" t="s">
+        <v>761</v>
+      </c>
       <c r="AO10" s="36"/>
       <c r="AP10" s="36"/>
       <c r="AR10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="AS10" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="AT10" s="36"/>
       <c r="AU10" s="36"/>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AX10" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
         <v>441</v>
@@ -32702,23 +32963,35 @@
       <c r="AJ11" t="s">
         <v>596</v>
       </c>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="37" t="s">
-        <v>761</v>
-      </c>
+      <c r="AL11" s="37" t="s">
+        <v>762</v>
+      </c>
+      <c r="AM11" s="36"/>
       <c r="AN11" s="36"/>
       <c r="AO11" s="36"/>
       <c r="AP11" s="36"/>
       <c r="AR11" t="s">
-        <v>468</v>
+        <v>763</v>
       </c>
       <c r="AS11" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="AT11" s="36"/>
       <c r="AU11" s="36"/>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV11" s="37"/>
+      <c r="AX11" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BB11" t="s">
+        <v>819</v>
+      </c>
+      <c r="BC11" s="18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="E12" s="16" t="s">
         <v>441</v>
       </c>
@@ -32764,17 +33037,31 @@
       <c r="AJ12" t="s">
         <v>591</v>
       </c>
-      <c r="AN12" s="37" t="s">
-        <v>762</v>
-      </c>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
       <c r="AR12" t="s">
-        <v>767</v>
+        <v>468</v>
       </c>
       <c r="AS12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AT12" s="36"/>
+      <c r="AV12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="AZ12" s="37"/>
+      <c r="BB12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="E13" s="16" t="s">
         <v>441</v>
       </c>
@@ -32815,19 +33102,29 @@
       <c r="AJ13" t="s">
         <v>598</v>
       </c>
-      <c r="AL13" s="37" t="s">
-        <v>765</v>
-      </c>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
+      <c r="AN13" s="37" t="s">
+        <v>761</v>
+      </c>
       <c r="AR13" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="AS13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="AV13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="AZ13" s="37"/>
+      <c r="BB13" t="s">
+        <v>824</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="E14" s="16" t="s">
         <v>441</v>
       </c>
@@ -32875,19 +33172,32 @@
       <c r="AJ14" t="s">
         <v>595</v>
       </c>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="37" t="s">
-        <v>761</v>
-      </c>
+      <c r="AL14" s="37" t="s">
+        <v>764</v>
+      </c>
+      <c r="AM14" s="36"/>
       <c r="AN14" s="36"/>
       <c r="AR14" t="s">
-        <v>468</v>
+        <v>758</v>
       </c>
       <c r="AS14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="AV14" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BB14" t="s">
+        <v>809</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="E15" s="16" t="s">
         <v>441</v>
       </c>
@@ -32934,17 +33244,35 @@
       <c r="AJ15" t="s">
         <v>596</v>
       </c>
-      <c r="AN15" s="37" t="s">
-        <v>766</v>
-      </c>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="AN15" s="36"/>
       <c r="AR15" t="s">
-        <v>590</v>
+        <v>468</v>
       </c>
       <c r="AS15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AV15" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BB15" t="s">
+        <v>809</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>827</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="E16" s="16" t="s">
         <v>441</v>
       </c>
@@ -32994,21 +33322,24 @@
       <c r="AJ16" t="s">
         <v>591</v>
       </c>
-      <c r="AL16" s="37" t="s">
-        <v>755</v>
-      </c>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
+      <c r="AN16" s="37" t="s">
+        <v>765</v>
+      </c>
       <c r="AR16" t="s">
-        <v>753</v>
-      </c>
-      <c r="AS16" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37" t="s">
+        <v>830</v>
+      </c>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+    </row>
+    <row r="17" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E17" s="16" t="s">
         <v>441</v>
       </c>
@@ -33082,21 +33413,34 @@
       <c r="AJ17" t="s">
         <v>112</v>
       </c>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="37" t="s">
-        <v>770</v>
-      </c>
+      <c r="AL17" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="AM17" s="36"/>
       <c r="AN17" s="36"/>
       <c r="AO17" s="36"/>
       <c r="AP17" s="36"/>
       <c r="AR17" t="s">
-        <v>769</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+      <c r="AS17" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="AV17" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BB17" t="s">
+        <v>809</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E18" s="16" t="s">
         <v>441</v>
       </c>
@@ -33149,18 +33493,31 @@
       <c r="AJ18" t="s">
         <v>573</v>
       </c>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37" t="s">
-        <v>761</v>
-      </c>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
       <c r="AR18" t="s">
-        <v>468</v>
+        <v>768</v>
       </c>
       <c r="AS18" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BB18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E19" s="16" t="s">
         <v>441</v>
       </c>
@@ -33216,17 +33573,28 @@
       <c r="AJ19" t="s">
         <v>600</v>
       </c>
-      <c r="AO19" s="37" t="s">
-        <v>773</v>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37" t="s">
+        <v>760</v>
       </c>
       <c r="AR19" t="s">
-        <v>774</v>
+        <v>468</v>
       </c>
       <c r="AS19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>810</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="20" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E20" s="16" t="s">
         <v>441</v>
       </c>
@@ -33273,20 +33641,29 @@
       <c r="AJ20" t="s">
         <v>582</v>
       </c>
-      <c r="AP20" s="37" t="s">
-        <v>762</v>
-      </c>
-      <c r="AQ20" s="37" t="s">
-        <v>776</v>
+      <c r="AO20" s="37" t="s">
+        <v>772</v>
       </c>
       <c r="AR20" t="s">
-        <v>19</v>
+        <v>773</v>
       </c>
       <c r="AS20" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="AV20" s="37"/>
+      <c r="AX20" s="37" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BB20" t="s">
+        <v>837</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E21" s="16" t="s">
         <v>441</v>
       </c>
@@ -33321,21 +33698,29 @@
       <c r="AJ21" t="s">
         <v>583</v>
       </c>
-      <c r="AL21" s="37" t="s">
-        <v>755</v>
-      </c>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
+      <c r="AP21" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="AQ21" s="37" t="s">
+        <v>775</v>
+      </c>
       <c r="AR21" t="s">
-        <v>753</v>
-      </c>
-      <c r="AS21" s="38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>774</v>
+      </c>
+      <c r="AV21" s="37"/>
+      <c r="AX21" s="37" t="s">
+        <v>833</v>
+      </c>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BB21" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="22" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E22" s="16" t="s">
         <v>441</v>
       </c>
@@ -33371,20 +33756,30 @@
         <v>19</v>
       </c>
       <c r="AL22" s="37" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="AM22" s="36"/>
       <c r="AN22" s="36"/>
       <c r="AO22" s="36"/>
       <c r="AP22" s="36"/>
       <c r="AR22" t="s">
-        <v>759</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+      <c r="AS22" s="38" t="s">
+        <v>749</v>
+      </c>
+      <c r="AV22" s="37"/>
+      <c r="AY22" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>758</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E23" s="16" t="s">
         <v>441</v>
       </c>
@@ -33401,22 +33796,30 @@
         <v>63</v>
       </c>
       <c r="K23" s="18"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="37" t="s">
-        <v>777</v>
-      </c>
+      <c r="AL23" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM23" s="36"/>
       <c r="AN23" s="36"/>
       <c r="AO23" s="36"/>
       <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
       <c r="AR23" t="s">
-        <v>778</v>
-      </c>
-      <c r="AS23" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="AZ23" s="37"/>
+      <c r="BB23" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E24" s="16" t="s">
         <v>441</v>
       </c>
@@ -33440,20 +33843,29 @@
       </c>
       <c r="AL24" s="36"/>
       <c r="AM24" s="37" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AN24" s="36"/>
       <c r="AO24" s="36"/>
       <c r="AP24" s="36"/>
       <c r="AQ24" s="36"/>
       <c r="AR24" t="s">
+        <v>777</v>
+      </c>
+      <c r="AS24" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="AS24" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.3">
+      <c r="AV24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E25" s="16" t="s">
         <v>441</v>
       </c>
@@ -33471,17 +33883,32 @@
       </c>
       <c r="K25" s="18"/>
       <c r="AI25"/>
+      <c r="AL25" s="36"/>
       <c r="AM25" s="37" t="s">
-        <v>783</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
       <c r="AR25" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="AS25" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>439</v>
       </c>
@@ -33519,21 +33946,29 @@
         <v>444</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AL26" s="36"/>
       <c r="AM26" s="37" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="AR26" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="AS26" t="s">
-        <v>789</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="27" spans="4:46" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+      <c r="AV26" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BB26" t="s">
+        <v>809</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="27" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>439</v>
       </c>
@@ -33559,19 +33994,32 @@
       </c>
       <c r="AL27" s="36"/>
       <c r="AM27" s="37" t="s">
-        <v>782</v>
-      </c>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
+        <v>786</v>
+      </c>
       <c r="AR27" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="AS27" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="28" spans="4:46" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>789</v>
+      </c>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BB27" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="28" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>176</v>
       </c>
@@ -33604,19 +34052,32 @@
       </c>
       <c r="AL28" s="36"/>
       <c r="AM28" s="37" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="AN28" s="36"/>
       <c r="AO28" s="36"/>
       <c r="AP28" s="36"/>
       <c r="AR28" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="AS28" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="29" spans="4:46" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BB28" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="29" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>176</v>
       </c>
@@ -33628,20 +34089,27 @@
       </c>
       <c r="K29" s="18"/>
       <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36" t="s">
-        <v>793</v>
-      </c>
+      <c r="AM29" s="37" t="s">
+        <v>790</v>
+      </c>
+      <c r="AN29" s="36"/>
       <c r="AO29" s="36"/>
       <c r="AP29" s="36"/>
       <c r="AR29" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AS29" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="30" spans="4:46" x14ac:dyDescent="0.3">
+      <c r="AV29" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+    </row>
+    <row r="30" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>176</v>
       </c>
@@ -33675,19 +34143,32 @@
       </c>
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37" t="s">
-        <v>762</v>
-      </c>
+      <c r="AN30" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="AO30" s="36"/>
       <c r="AP30" s="36"/>
       <c r="AR30" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="AS30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BB30" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" spans="4:55" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
       <c r="E31" t="s">
         <v>176</v>
@@ -33725,21 +34206,34 @@
       <c r="W31" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="AL31" s="37" t="s">
-        <v>763</v>
-      </c>
+      <c r="AL31" s="36"/>
       <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37" t="s">
+        <v>761</v>
+      </c>
       <c r="AP31" s="36"/>
       <c r="AR31" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="AS31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="4:46" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BB31" t="s">
+        <v>847</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="32" spans="4:55" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>139</v>
       </c>
@@ -33765,24 +34259,28 @@
       <c r="W32" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36" t="s">
-        <v>797</v>
-      </c>
-      <c r="AN32" s="36" t="s">
-        <v>797</v>
-      </c>
-      <c r="AO32" s="37" t="s">
+      <c r="AL32" s="37" t="s">
         <v>762</v>
       </c>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36"/>
       <c r="AR32" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AS32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="5:46" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="AV32" s="37" t="s">
+        <v>848</v>
+      </c>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+    </row>
+    <row r="33" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K33" s="18"/>
       <c r="T33" s="14">
         <v>0</v>
@@ -33796,17 +34294,31 @@
       <c r="W33" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="AL33" s="37" t="s">
-        <v>765</v>
+      <c r="AL33" s="36"/>
+      <c r="AM33" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="AN33" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO33" s="37" t="s">
+        <v>761</v>
       </c>
       <c r="AR33" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="AS33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="5:46" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+    </row>
+    <row r="34" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K34" s="18"/>
       <c r="T34" s="14">
         <v>1</v>
@@ -33820,23 +34332,22 @@
       <c r="W34" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="AM34" s="36" t="s">
-        <v>797</v>
-      </c>
-      <c r="AN34" s="36" t="s">
-        <v>797</v>
-      </c>
-      <c r="AO34" s="37" t="s">
-        <v>766</v>
+      <c r="AL34" s="37" t="s">
+        <v>764</v>
       </c>
       <c r="AR34" t="s">
-        <v>590</v>
+        <v>758</v>
       </c>
       <c r="AS34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="5:46" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+    </row>
+    <row r="35" spans="5:52" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>148</v>
       </c>
@@ -33856,17 +34367,23 @@
       <c r="W35" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="AL35" s="37" t="s">
-        <v>757</v>
+      <c r="AM35" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="AN35" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO35" s="37" t="s">
+        <v>765</v>
       </c>
       <c r="AR35" t="s">
-        <v>753</v>
+        <v>590</v>
       </c>
       <c r="AS35" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="36" spans="5:46" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="5:52" x14ac:dyDescent="0.3">
       <c r="T36" s="14" t="s">
         <v>491</v>
       </c>
@@ -33877,21 +34394,21 @@
         <v>587</v>
       </c>
       <c r="AL36" s="37" t="s">
-        <v>798</v>
-      </c>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
+        <v>756</v>
+      </c>
       <c r="AR36" t="s">
-        <v>778</v>
-      </c>
-      <c r="AS36" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="37" spans="5:46" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>750</v>
+      </c>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+    </row>
+    <row r="37" spans="5:52" x14ac:dyDescent="0.3">
       <c r="T37" s="14" t="s">
         <v>503</v>
       </c>
@@ -33902,7 +34419,7 @@
         <v>486</v>
       </c>
       <c r="AL37" s="37" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AM37" s="37"/>
       <c r="AN37" s="36"/>
@@ -33910,13 +34427,20 @@
       <c r="AP37" s="36"/>
       <c r="AQ37" s="36"/>
       <c r="AR37" t="s">
+        <v>777</v>
+      </c>
+      <c r="AS37" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="AS37" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="38" spans="5:46" x14ac:dyDescent="0.3">
+      <c r="AV37" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+    </row>
+    <row r="38" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K38" s="18"/>
       <c r="T38" s="14" t="s">
         <v>492</v>
@@ -33928,48 +34452,76 @@
         <v>486</v>
       </c>
       <c r="AL38" s="37" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AM38" s="37"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
       <c r="AR38" t="s">
+        <v>777</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AV38" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="AW38" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+    </row>
+    <row r="39" spans="5:52" x14ac:dyDescent="0.3">
+      <c r="K39" s="18"/>
+      <c r="AL39" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="AM39" s="37"/>
+      <c r="AR39" t="s">
+        <v>783</v>
+      </c>
+      <c r="AS39" t="s">
         <v>784</v>
       </c>
-      <c r="AS38" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="39" spans="5:46" x14ac:dyDescent="0.3">
-      <c r="K39" s="18"/>
-      <c r="AM39" s="37" t="s">
-        <v>761</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>788</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>802</v>
-      </c>
-      <c r="AT39" s="18" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="40" spans="5:46" x14ac:dyDescent="0.3">
+      <c r="AV39" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="AW39" s="37" t="s">
+        <v>855</v>
+      </c>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+    </row>
+    <row r="40" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K40" s="18"/>
-      <c r="AL40" s="37" t="s">
+      <c r="AM40" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>787</v>
+      </c>
+      <c r="AS40" t="s">
         <v>801</v>
       </c>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AR40" t="s">
-        <v>784</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="41" spans="5:46" x14ac:dyDescent="0.3">
+      <c r="AT40" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV40" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="AW40" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="37"/>
+    </row>
+    <row r="41" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K41" s="18"/>
       <c r="T41" s="13" t="s">
         <v>476</v>
@@ -33978,20 +34530,30 @@
       <c r="V41" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="AM41" s="37" t="s">
-        <v>793</v>
-      </c>
+      <c r="AL41" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="AM41" s="37"/>
       <c r="AN41" s="36"/>
       <c r="AO41" s="36"/>
       <c r="AP41" s="36"/>
       <c r="AR41" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="AS41" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="42" spans="5:46" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+      <c r="AV41" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="AW41" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="AX41" s="37"/>
+      <c r="AY41" s="37"/>
+      <c r="AZ41" s="37"/>
+    </row>
+    <row r="42" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K42" s="18"/>
       <c r="T42" s="14" t="s">
         <v>477</v>
@@ -33999,33 +34561,54 @@
       <c r="V42" t="s">
         <v>507</v>
       </c>
-      <c r="AN42" s="37" t="s">
-        <v>793</v>
-      </c>
+      <c r="AM42" s="37" t="s">
+        <v>792</v>
+      </c>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
       <c r="AR42" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AS42" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="43" spans="5:46" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="AV42" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="AW42" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+    </row>
+    <row r="43" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K43" s="18"/>
       <c r="X43" s="8" t="s">
         <v>480</v>
       </c>
       <c r="AD43" s="11"/>
-      <c r="AO43" s="37" t="s">
-        <v>773</v>
+      <c r="AN43" s="37" t="s">
+        <v>792</v>
       </c>
       <c r="AR43" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="AS43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="5:46" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+      <c r="AV43" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="AW43" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37"/>
+      <c r="AZ43" s="37"/>
+    </row>
+    <row r="44" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K44" s="18"/>
       <c r="T44" s="13" t="s">
         <v>479</v>
@@ -34039,20 +34622,26 @@
       <c r="W44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AP44" s="37" t="s">
-        <v>762</v>
-      </c>
-      <c r="AQ44" s="37" t="s">
-        <v>776</v>
+      <c r="AO44" s="37" t="s">
+        <v>772</v>
       </c>
       <c r="AR44" t="s">
-        <v>19</v>
+        <v>773</v>
       </c>
       <c r="AS44" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="45" spans="5:46" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="AV44" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="AW44" s="37" t="s">
+        <v>856</v>
+      </c>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+    </row>
+    <row r="45" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K45" s="18"/>
       <c r="T45" s="14">
         <v>0</v>
@@ -34066,8 +34655,29 @@
       <c r="W45" s="31" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="46" spans="5:46" x14ac:dyDescent="0.3">
+      <c r="AP45" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="AQ45" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>774</v>
+      </c>
+      <c r="AV45" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="AW45" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="AX45" s="37"/>
+      <c r="AY45" s="37"/>
+      <c r="AZ45" s="37"/>
+    </row>
+    <row r="46" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K46" s="18"/>
       <c r="T46" s="14">
         <v>0</v>
@@ -34081,8 +34691,12 @@
       <c r="W46" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="47" spans="5:46" x14ac:dyDescent="0.3">
+      <c r="AV46" s="36"/>
+      <c r="AX46" s="36"/>
+      <c r="AY46" s="36"/>
+      <c r="AZ46" s="36"/>
+    </row>
+    <row r="47" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K47" s="18"/>
       <c r="T47" s="14">
         <v>0</v>
@@ -34096,8 +34710,13 @@
       <c r="W47" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="48" spans="5:46" x14ac:dyDescent="0.3">
+      <c r="AV47" s="36"/>
+      <c r="AW47" s="36"/>
+      <c r="AX47" s="36"/>
+      <c r="AY47" s="36"/>
+      <c r="AZ47" s="36"/>
+    </row>
+    <row r="48" spans="5:52" x14ac:dyDescent="0.3">
       <c r="K48" s="18"/>
       <c r="T48" s="14">
         <v>1</v>
@@ -34111,8 +34730,13 @@
       <c r="W48" s="14" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="49" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="AV48" s="36"/>
+      <c r="AW48" s="36"/>
+      <c r="AX48" s="36"/>
+      <c r="AY48" s="36"/>
+      <c r="AZ48" s="36"/>
+    </row>
+    <row r="49" spans="4:52" x14ac:dyDescent="0.3">
       <c r="K49" s="18"/>
       <c r="T49" s="14">
         <v>1</v>
@@ -34126,8 +34750,13 @@
       <c r="W49" s="14" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="50" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="AV49" s="36"/>
+      <c r="AW49" s="36"/>
+      <c r="AX49" s="36"/>
+      <c r="AY49" s="36"/>
+      <c r="AZ49" s="36"/>
+    </row>
+    <row r="50" spans="4:52" x14ac:dyDescent="0.3">
       <c r="T50" s="14" t="s">
         <v>515</v>
       </c>
@@ -34137,8 +34766,13 @@
       <c r="W50" s="14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="51" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="AV50" s="36"/>
+      <c r="AW50" s="36"/>
+      <c r="AX50" s="36"/>
+      <c r="AY50" s="36"/>
+      <c r="AZ50" s="36"/>
+    </row>
+    <row r="51" spans="4:52" x14ac:dyDescent="0.3">
       <c r="T51" s="14" t="s">
         <v>503</v>
       </c>
@@ -34148,8 +34782,13 @@
       <c r="W51" s="14" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="52" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="AV51" s="36"/>
+      <c r="AW51" s="36"/>
+      <c r="AX51" s="36"/>
+      <c r="AY51" s="36"/>
+      <c r="AZ51" s="36"/>
+    </row>
+    <row r="52" spans="4:52" x14ac:dyDescent="0.3">
       <c r="T52" s="14" t="s">
         <v>492</v>
       </c>
@@ -34159,8 +34798,13 @@
       <c r="W52" s="14" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="55" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="AV52" s="36"/>
+      <c r="AW52" s="36"/>
+      <c r="AX52" s="36"/>
+      <c r="AY52" s="36"/>
+      <c r="AZ52" s="36"/>
+    </row>
+    <row r="55" spans="4:52" x14ac:dyDescent="0.3">
       <c r="T55" s="13" t="s">
         <v>476</v>
       </c>
@@ -34169,7 +34813,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="56" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:52" x14ac:dyDescent="0.3">
       <c r="T56" s="14" t="s">
         <v>477</v>
       </c>
@@ -34177,12 +34821,12 @@
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:52" x14ac:dyDescent="0.3">
       <c r="X57" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="58" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D58" s="10">
         <f t="shared" ref="D58:D76" si="0">D57+1</f>
         <v>1</v>
@@ -34200,7 +34844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D59" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -34218,7 +34862,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D60" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -34236,7 +34880,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D61" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -34254,13 +34898,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D62" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D63" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -34269,7 +34913,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:52" x14ac:dyDescent="0.3">
       <c r="D64" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -35998,7 +36642,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AV1:AW1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36718,7 +37366,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" ref="I46:I57" si="4">G46*H46</f>
+        <f t="shared" ref="I46:I53" si="4">G46*H46</f>
         <v>96</v>
       </c>
       <c r="J46" s="10">
@@ -36918,7 +37566,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" ref="I54:I59" si="6">G54*H54</f>
+        <f t="shared" ref="I54:I55" si="6">G54*H54</f>
         <v>64</v>
       </c>
       <c r="J54" s="10">

--- a/Documentation/Mestra.xlsx
+++ b/Documentation/Mestra.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="849">
   <si>
     <t>Day</t>
   </si>
@@ -2496,9 +2496,6 @@
     <t>Note start</t>
   </si>
   <si>
-    <t>0~10: octave, 11~126: note, 127: All</t>
-  </si>
-  <si>
     <t>MIDI Triggers</t>
   </si>
   <si>
@@ -2583,31 +2580,7 @@
     <t>----1110</t>
   </si>
   <si>
-    <t>Trigger order</t>
-  </si>
-  <si>
-    <t>Lower than previous</t>
-  </si>
-  <si>
-    <t>Higher than previous</t>
-  </si>
-  <si>
-    <t>Lower than value</t>
-  </si>
-  <si>
-    <t>Higher than value</t>
-  </si>
-  <si>
-    <t>Equals</t>
-  </si>
-  <si>
-    <t>Not equal</t>
-  </si>
-  <si>
-    <t>Edge downwards (cur value &lt; value, prev value &gt; value</t>
-  </si>
-  <si>
-    <t>Edge upwards (cur value &gt; value, prev value &lt; value</t>
+    <t>0=All, 1~16: note groups, 17~126: note</t>
   </si>
 </sst>
 </file>
@@ -32153,8 +32126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BD272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT25" workbookViewId="0">
-      <selection activeCell="AY48" sqref="AY48"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32221,7 +32194,7 @@
         <v>740</v>
       </c>
       <c r="AV1" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AW1" s="40"/>
     </row>
@@ -32728,12 +32701,12 @@
         <v>817</v>
       </c>
       <c r="BD8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B9" t="s">
         <v>807</v>
@@ -32816,13 +32789,13 @@
       <c r="AU9" s="36"/>
       <c r="AV9" s="37"/>
       <c r="AW9" s="37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BB9" t="s">
         <v>810</v>
       </c>
       <c r="BC9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.3">
@@ -32988,7 +32961,7 @@
         <v>819</v>
       </c>
       <c r="BC11" s="18" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.3">
@@ -33118,10 +33091,10 @@
       </c>
       <c r="AZ13" s="37"/>
       <c r="BB13" t="s">
+        <v>823</v>
+      </c>
+      <c r="BC13" t="s">
         <v>824</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.3">
@@ -33184,7 +33157,7 @@
         <v>180</v>
       </c>
       <c r="AV14" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AW14" s="37"/>
       <c r="AX14" s="37"/>
@@ -33194,7 +33167,7 @@
         <v>809</v>
       </c>
       <c r="BC14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.3">
@@ -33256,7 +33229,7 @@
         <v>147</v>
       </c>
       <c r="AV15" s="37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AW15" s="37"/>
       <c r="AX15" s="37"/>
@@ -33266,10 +33239,10 @@
         <v>809</v>
       </c>
       <c r="BC15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BD15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.3">
@@ -33333,7 +33306,7 @@
       </c>
       <c r="AV16" s="37"/>
       <c r="AW16" s="37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AX16" s="37"/>
       <c r="AY16" s="37"/>
@@ -33427,7 +33400,7 @@
         <v>755</v>
       </c>
       <c r="AV17" s="37" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AW17" s="37"/>
       <c r="AX17" s="37"/>
@@ -33437,7 +33410,7 @@
         <v>809</v>
       </c>
       <c r="BC17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="4:55" x14ac:dyDescent="0.3">
@@ -33585,13 +33558,13 @@
       </c>
       <c r="AV19" s="37"/>
       <c r="AW19" s="37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BB19" t="s">
         <v>810</v>
       </c>
       <c r="BC19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="4:55" x14ac:dyDescent="0.3">
@@ -33652,15 +33625,15 @@
       </c>
       <c r="AV20" s="37"/>
       <c r="AX20" s="37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AY20" s="37"/>
       <c r="AZ20" s="37"/>
       <c r="BB20" t="s">
+        <v>836</v>
+      </c>
+      <c r="BC20" t="s">
         <v>837</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="21" spans="4:55" x14ac:dyDescent="0.3">
@@ -33712,12 +33685,12 @@
       </c>
       <c r="AV21" s="37"/>
       <c r="AX21" s="37" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AY21" s="37"/>
       <c r="AZ21" s="37"/>
       <c r="BB21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="4:55" x14ac:dyDescent="0.3">
@@ -33776,7 +33749,7 @@
         <v>758</v>
       </c>
       <c r="BC22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="4:55" x14ac:dyDescent="0.3">
@@ -33812,11 +33785,11 @@
       <c r="AV23" s="37"/>
       <c r="AX23" s="37"/>
       <c r="AY23" s="37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AZ23" s="37"/>
       <c r="BB23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="24" spans="4:55" x14ac:dyDescent="0.3">
@@ -33902,10 +33875,10 @@
       <c r="AX25" s="37"/>
       <c r="AY25" s="37"/>
       <c r="AZ25" s="37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="BB25" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="4:55" x14ac:dyDescent="0.3">
@@ -33956,7 +33929,7 @@
         <v>784</v>
       </c>
       <c r="AV26" s="37" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AX26" s="37"/>
       <c r="AY26" s="37"/>
@@ -33965,7 +33938,7 @@
         <v>809</v>
       </c>
       <c r="BC26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="4:55" x14ac:dyDescent="0.3">
@@ -34016,7 +33989,7 @@
         <v>96</v>
       </c>
       <c r="BC27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="28" spans="4:55" x14ac:dyDescent="0.3">
@@ -34065,7 +34038,7 @@
       </c>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AX28" s="37"/>
       <c r="AY28" s="37"/>
@@ -34074,7 +34047,7 @@
         <v>342</v>
       </c>
       <c r="BC28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="4:55" x14ac:dyDescent="0.3">
@@ -34102,7 +34075,7 @@
         <v>795</v>
       </c>
       <c r="AV29" s="37" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AW29" s="37"/>
       <c r="AX29" s="37"/>
@@ -34165,7 +34138,7 @@
         <v>96</v>
       </c>
       <c r="BC30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="31" spans="4:55" x14ac:dyDescent="0.3">
@@ -34221,16 +34194,16 @@
       </c>
       <c r="AV31" s="37"/>
       <c r="AW31" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AX31" s="37"/>
       <c r="AY31" s="37"/>
       <c r="AZ31" s="37"/>
       <c r="BB31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="BC31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="4:55" x14ac:dyDescent="0.3">
@@ -34273,7 +34246,7 @@
         <v>178</v>
       </c>
       <c r="AV32" s="37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AW32" s="37"/>
       <c r="AX32" s="37"/>
@@ -34432,9 +34405,7 @@
       <c r="AS37" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="AV37" s="37" t="s">
-        <v>849</v>
-      </c>
+      <c r="AV37" s="37"/>
       <c r="AW37" s="37"/>
       <c r="AX37" s="37"/>
       <c r="AY37" s="37"/>
@@ -34465,12 +34436,8 @@
       <c r="AS38" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="AV38" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="AW38" s="37" t="s">
-        <v>854</v>
-      </c>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
       <c r="AX38" s="37"/>
       <c r="AY38" s="37"/>
       <c r="AZ38" s="37"/>
@@ -34487,12 +34454,8 @@
       <c r="AS39" t="s">
         <v>784</v>
       </c>
-      <c r="AV39" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="AW39" s="37" t="s">
-        <v>855</v>
-      </c>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
       <c r="AX39" s="37"/>
       <c r="AY39" s="37"/>
       <c r="AZ39" s="37"/>
@@ -34511,12 +34474,8 @@
       <c r="AT40" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="AV40" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="AW40" s="37" t="s">
-        <v>852</v>
-      </c>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="37"/>
       <c r="AX40" s="37"/>
       <c r="AY40" s="37"/>
       <c r="AZ40" s="37"/>
@@ -34543,12 +34502,8 @@
       <c r="AS41" t="s">
         <v>785</v>
       </c>
-      <c r="AV41" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="AW41" s="37" t="s">
-        <v>853</v>
-      </c>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
       <c r="AX41" s="37"/>
       <c r="AY41" s="37"/>
       <c r="AZ41" s="37"/>
@@ -34573,12 +34528,8 @@
       <c r="AS42" t="s">
         <v>802</v>
       </c>
-      <c r="AV42" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="AW42" s="37" t="s">
-        <v>850</v>
-      </c>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
       <c r="AX42" s="37"/>
       <c r="AY42" s="37"/>
       <c r="AZ42" s="37"/>
@@ -34598,12 +34549,8 @@
       <c r="AS43" t="s">
         <v>804</v>
       </c>
-      <c r="AV43" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="AW43" s="37" t="s">
-        <v>851</v>
-      </c>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="37"/>
       <c r="AX43" s="37"/>
       <c r="AY43" s="37"/>
       <c r="AZ43" s="37"/>
@@ -34631,12 +34578,8 @@
       <c r="AS44" t="s">
         <v>147</v>
       </c>
-      <c r="AV44" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="AW44" s="37" t="s">
-        <v>856</v>
-      </c>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
       <c r="AX44" s="37"/>
       <c r="AY44" s="37"/>
       <c r="AZ44" s="37"/>
@@ -34667,12 +34610,8 @@
       <c r="AS45" t="s">
         <v>774</v>
       </c>
-      <c r="AV45" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="AW45" s="37" t="s">
-        <v>857</v>
-      </c>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="37"/>
       <c r="AX45" s="37"/>
       <c r="AY45" s="37"/>
       <c r="AZ45" s="37"/>
